--- a/data/trans_orig/Q19B_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Clase-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>28.36688817023115</v>
+        <v>27.87936889723535</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>35.41174493094271</v>
+        <v>35.48506318786369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26.04341820554195</v>
+        <v>26.24165267708629</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19.86785841751788</v>
+        <v>19.85306002096424</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>23.08134603799349</v>
+        <v>23.05583543026553</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.83122491343046</v>
+        <v>17.90524893338658</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>25.97044970483906</v>
+        <v>25.78929527737953</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>31.73614820743383</v>
+        <v>31.54200264645378</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>23.89172795620137</v>
+        <v>23.70220043161304</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>38.00494681962996</v>
+        <v>37.67245061371224</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>55.06658753015978</v>
+        <v>55.53122218216049</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37.92565174382332</v>
+        <v>38.67295830211243</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27.69459739156998</v>
+        <v>27.78575647887816</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>35.00467294778787</v>
+        <v>34.7182946604199</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>41.41179682845403</v>
+        <v>38.40239942546596</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>32.83337155129725</v>
+        <v>32.57794947271595</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>43.68271863313726</v>
+        <v>43.75788578547311</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>33.53657181979721</v>
+        <v>33.06271618788102</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>30.4414150351294</v>
+        <v>31.91578240499032</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>26.60684897413963</v>
+        <v>26.60706689259749</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29.49542879892221</v>
+        <v>30.63152934154581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23.07575155229212</v>
+        <v>23.23290957583439</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>20.82757424790675</v>
+        <v>21.03636429904174</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>20.35338827363553</v>
+        <v>20.17865910803745</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>28.36856939899523</v>
+        <v>28.0928398582685</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>25.73820958278958</v>
+        <v>25.48598904737502</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>26.72218242902775</v>
+        <v>26.63370351329191</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>47.05077840058964</v>
+        <v>48.33782365753125</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>37.96999076792454</v>
+        <v>37.9352496321163</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>59.37225192932451</v>
+        <v>67.23152542333521</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31.78242216376158</v>
+        <v>31.64697805876303</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>30.69051396990356</v>
+        <v>30.51263129730071</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>25.54475668349208</v>
+        <v>25.55704050323774</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>36.98229743952529</v>
+        <v>37.21962154668626</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>33.41877729595993</v>
+        <v>32.75272402168287</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>43.20254783640564</v>
+        <v>44.74799338674874</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>34.99791521083629</v>
+        <v>35.32639637330268</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>40.01180586005081</v>
+        <v>40.34250446864206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34.83286694031527</v>
+        <v>34.6301503612858</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25.58480995605252</v>
+        <v>25.32842161631989</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>26.16791588481498</v>
+        <v>26.14196533802158</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.7738727490504</v>
+        <v>18.61537980895532</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>34.09935948760319</v>
+        <v>34.31381851441063</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>37.5379870989899</v>
+        <v>37.40308062031309</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>31.65268854274847</v>
+        <v>31.94648680316861</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>49.11816567914268</v>
+        <v>49.16990107965825</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>52.83845765199643</v>
+        <v>52.50953160464134</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45.40451651374388</v>
+        <v>45.25511994993946</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45.80849266666537</v>
+        <v>48.97889164919869</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>41.2639778212819</v>
+        <v>41.10178916713726</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>29.944888862814</v>
+        <v>30.53807781377474</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>45.44162570425839</v>
+        <v>45.83319511604645</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>47.800171263532</v>
+        <v>47.45380864109445</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>40.6743712840519</v>
+        <v>40.40461956867875</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>37.64339746556987</v>
+        <v>37.5458766789015</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>43.09282179151649</v>
+        <v>43.33968627327782</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33.1685593126335</v>
+        <v>33.27643896560282</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30.62353924027121</v>
+        <v>30.9392698838057</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>28.15090854055059</v>
+        <v>28.36125972929724</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.10840178198612</v>
+        <v>24.21545415691977</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>35.7591018329561</v>
+        <v>35.91386041264716</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>38.69393319530056</v>
+        <v>38.32758404614684</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>30.36435316901485</v>
+        <v>30.47954091133868</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45.89059817175766</v>
+        <v>45.55279204315837</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>52.68826700059478</v>
+        <v>53.15801513315428</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>42.62839624657021</v>
+        <v>43.42528994584917</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>40.98757911996803</v>
+        <v>41.15747757054457</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>36.68413978380473</v>
+        <v>36.32968631607222</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>32.59124165842554</v>
+        <v>33.4132221776351</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>42.58887488122754</v>
+        <v>42.34940064360406</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>45.1172389496603</v>
+        <v>45.22531465249072</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>37.64050388177066</v>
+        <v>37.57604413596098</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>30.1840315797971</v>
+        <v>31.20617378153998</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>40.48623842948784</v>
+        <v>40.0988863362003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30.1853235398917</v>
+        <v>30.07495447051364</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35.3536455487165</v>
+        <v>36.67732327658435</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>41.72293468781119</v>
+        <v>41.86204962612896</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>30.23583055880104</v>
+        <v>30.54315617040303</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>35.57948578907812</v>
+        <v>35.67311714462206</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>42.87029968697122</v>
+        <v>42.85475847038261</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>31.18550412737669</v>
+        <v>31.11576011282305</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>44.09116432864227</v>
+        <v>43.75633811697148</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>54.44621496436464</v>
+        <v>53.69644019151586</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>41.31428110481595</v>
+        <v>40.84451030306153</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50.33312974546988</v>
+        <v>51.59598852182752</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>55.94405426817291</v>
+        <v>56.0300210318141</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>41.81234229065812</v>
+        <v>42.34808734108554</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>45.58482630085953</v>
+        <v>45.99941541772761</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>52.57995253727219</v>
+        <v>52.68955336516138</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>39.38714228852639</v>
+        <v>38.901838720129</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>18.20508642579886</v>
+        <v>18.47270280646075</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>20.84260999361708</v>
+        <v>21.02699973751755</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19.89991583704953</v>
+        <v>20.07278053472953</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44.81855793546008</v>
+        <v>45.1786927418373</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>42.85303570975719</v>
+        <v>43.00703041544757</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.71808562405091</v>
+        <v>26.84946245004727</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>40.49600349707448</v>
+        <v>40.30218279899921</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>39.4387226108142</v>
+        <v>39.53017190159471</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>25.98225331151153</v>
+        <v>26.14451818608752</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.36704571090955</v>
+        <v>24.41862013672853</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>31.08531318468795</v>
+        <v>31.79475106587376</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30.46781131920952</v>
+        <v>29.81327706803255</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56.13920886490009</v>
+        <v>56.34867764826463</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>55.59302681507042</v>
+        <v>54.6420801926075</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>34.30821424854017</v>
+        <v>34.65739781166542</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>49.31092245355955</v>
+        <v>49.07832017311931</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>49.51998551722749</v>
+        <v>49.49521960938264</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>32.37662337246618</v>
+        <v>32.44441873901771</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>34.72391075698324</v>
+        <v>34.86978111907963</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>40.72106637285498</v>
+        <v>40.70365217240911</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>33.24334277592964</v>
+        <v>33.13693486437273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37.64069951139064</v>
+        <v>37.81108467547764</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>36.90888768812086</v>
+        <v>36.91386364340838</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.55842180498816</v>
+        <v>26.59644078875722</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>36.90289732615276</v>
+        <v>36.71543874633542</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>39.36939542765572</v>
+        <v>39.48640827630541</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>30.49320154651348</v>
+        <v>30.48854770989173</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>39.59946528262439</v>
+        <v>39.64172256011512</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>46.21204143514812</v>
+        <v>46.04953889363417</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38.60892229470912</v>
+        <v>38.54764199639157</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43.32615093875182</v>
+        <v>43.05614888484933</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>42.57252154728912</v>
+        <v>42.26623894324546</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.9254027432499</v>
+        <v>30.74459724715858</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>40.41607993699289</v>
+        <v>40.57203620680573</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>43.10381303277546</v>
+        <v>43.38500948282514</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>33.91293841471683</v>
+        <v>34.30458410897637</v>
       </c>
     </row>
     <row r="25">
